--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
@@ -679,7 +679,7 @@
         <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -805,13 +805,13 @@
         <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -835,7 +835,7 @@
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>1.44</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
         <v>5.5</v>
@@ -1102,19 +1102,19 @@
         <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>9.4</v>
@@ -1138,7 +1138,7 @@
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
@@ -1243,13 +1243,13 @@
         <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
         <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2.36</v>
@@ -1297,19 +1297,19 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK6" t="n">
         <v>1000</v>
       </c>
-      <c r="AK6" t="n">
-        <v>50</v>
-      </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
         <v>9.6</v>
@@ -1480,7 +1480,7 @@
         <v>12.5</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.32</v>
@@ -1558,7 +1558,7 @@
         <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
         <v>36</v>
@@ -1618,7 +1618,7 @@
         <v>2.68</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
         <v>2.96</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1651,13 +1651,13 @@
         <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>48</v>
@@ -1702,13 +1702,13 @@
         <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1786,13 +1786,13 @@
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>20</v>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
         <v>46</v>
@@ -1846,13 +1846,13 @@
         <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1906,28 +1906,28 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -1969,13 +1969,13 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>130</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
         <v>60</v>
@@ -1984,10 +1984,10 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -673,13 +673,13 @@
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
         <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>3.85</v>
@@ -835,7 +835,7 @@
         <v>1.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G5" t="n">
         <v>9</v>
@@ -1084,10 +1084,10 @@
         <v>1.44</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
         <v>32</v>
@@ -1243,7 +1243,7 @@
         <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>2.78</v>
@@ -1297,7 +1297,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1510,16 +1510,16 @@
         <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
         <v>1.74</v>
@@ -1543,7 +1543,7 @@
         <v>9.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="n">
         <v>13.5</v>
@@ -1555,10 +1555,10 @@
         <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH8" t="n">
         <v>36</v>
@@ -1570,16 +1570,16 @@
         <v>770</v>
       </c>
       <c r="AK8" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM8" t="n">
         <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AO8" t="n">
         <v>5.2</v>
@@ -1636,22 +1636,22 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
         <v>1.75</v>
@@ -1669,10 +1669,10 @@
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>48</v>
@@ -1702,13 +1702,13 @@
         <v>44</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
         <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
         <v>1.97</v>
@@ -1786,13 +1786,13 @@
         <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -1840,10 +1840,10 @@
         <v>80</v>
       </c>
       <c r="AK10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL10" t="n">
         <v>46</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>70</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1957,16 +1957,16 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>25</v>
@@ -1978,13 +1978,13 @@
         <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
         <v>6.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -670,16 +670,16 @@
         <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.85</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I5" t="n">
         <v>1.44</v>
@@ -1105,16 +1105,16 @@
         <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1141,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
         <v>120</v>
@@ -1174,7 +1174,7 @@
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
         <v>5.9</v>
@@ -1213,10 +1213,10 @@
         <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
@@ -1237,22 +1237,22 @@
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
         <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1288,28 +1288,28 @@
         <v>36</v>
       </c>
       <c r="AG6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH6" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AO6" t="n">
         <v>9.6</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
         <v>13.5</v>
       </c>
       <c r="H8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.32</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.33</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
         <v>1.5</v>
@@ -1543,10 +1543,10 @@
         <v>9.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
@@ -1561,7 +1561,7 @@
         <v>48</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>46</v>
@@ -1570,16 +1570,16 @@
         <v>770</v>
       </c>
       <c r="AK8" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL8" t="n">
         <v>200</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="AN8" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>5.2</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1651,10 +1651,10 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
         <v>2.22</v>
@@ -1672,10 +1672,10 @@
         <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
@@ -1684,13 +1684,13 @@
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>34</v>
       </c>
       <c r="AF9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>12.5</v>
@@ -1699,16 +1699,16 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
         <v>1.96</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,34 +1801,34 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -1840,19 +1840,19 @@
         <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1915,16 +1915,16 @@
         <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
         <v>2.52</v>
@@ -1960,13 +1960,13 @@
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
         <v>25</v>
@@ -1981,13 +1981,13 @@
         <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
         <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>2.56</v>
       </c>
       <c r="I2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>1.42</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1099,25 +1099,25 @@
         <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1156,28 +1156,28 @@
         <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>4.4</v>
@@ -1228,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
         <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>11.5</v>
@@ -1273,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1285,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>18</v>
@@ -1297,22 +1297,22 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1501,25 +1501,25 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
         <v>2.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.74</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>8.4</v>
@@ -1546,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
         <v>10.5</v>
@@ -1555,34 +1555,34 @@
         <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="n">
         <v>48</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>46</v>
       </c>
       <c r="AJ8" t="n">
         <v>770</v>
       </c>
       <c r="AK8" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AL8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
         <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.32</v>
@@ -1651,7 +1651,7 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
         <v>1.74</v>
@@ -1672,7 +1672,7 @@
         <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>46</v>
@@ -1708,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>110</v>
@@ -1750,13 +1750,13 @@
         <v>4.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I10" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
         <v>3.95</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -1840,13 +1840,13 @@
         <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>48</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1906,28 +1906,28 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
         <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
         <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -1978,16 +1978,16 @@
         <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -685,7 +685,7 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -709,13 +709,13 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.42</v>
@@ -751,7 +751,7 @@
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -820,94 +820,94 @@
         <v>7.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.66</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1099,25 +1099,25 @@
         <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF5" t="n">
         <v>80</v>
@@ -1156,28 +1156,28 @@
         <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I6" t="n">
         <v>1.9</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1240,19 +1240,19 @@
         <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
         <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>11.5</v>
@@ -1273,10 +1273,10 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1285,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
         <v>17.5</v>
@@ -1297,16 +1297,16 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
         <v>44</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="n">
         <v>13.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Z8" t="n">
-        <v>7.4</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL8" t="n">
         <v>40</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>770</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>210</v>
-      </c>
       <c r="AM8" t="n">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,62 +1603,62 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>13.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>1.31</v>
       </c>
       <c r="I9" t="n">
-        <v>2.92</v>
+        <v>1.32</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.74</v>
       </c>
-      <c r="U9" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>9.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>770</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.97</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.98</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.69</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,57 +1936,192 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>16</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK12" t="n">
         <v>55</v>
       </c>
-      <c r="AG11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AL12" t="n">
         <v>50</v>
       </c>
-      <c r="AM11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
         <v>42</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>6.8</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -670,13 +670,13 @@
         <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -685,40 +685,40 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
         <v>1.73</v>
       </c>
       <c r="R3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.05</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
         <v>1.44</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I5" t="n">
         <v>1.44</v>
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
@@ -1108,13 +1108,13 @@
         <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
@@ -1132,10 +1132,10 @@
         <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
@@ -1144,10 +1144,10 @@
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>80</v>
@@ -1162,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AK5" t="n">
         <v>140</v>
@@ -1216,7 +1216,7 @@
         <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
@@ -1237,16 +1237,16 @@
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
         <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
         <v>1.7</v>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
         <v>2.38</v>
@@ -1489,7 +1489,7 @@
         <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1498,31 +1498,31 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>65</v>
@@ -1549,19 +1549,19 @@
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
         <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1570,19 +1570,19 @@
         <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G9" t="n">
         <v>13</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.5</v>
       </c>
       <c r="H9" t="n">
         <v>1.31</v>
@@ -1651,13 +1651,13 @@
         <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
         <v>9.4</v>
@@ -1693,7 +1693,7 @@
         <v>140</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="n">
         <v>36</v>
@@ -1711,7 +1711,7 @@
         <v>210</v>
       </c>
       <c r="AM9" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.92</v>
       </c>
       <c r="J10" t="n">
         <v>3.45</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
@@ -1792,7 +1792,7 @@
         <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
         <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
@@ -1834,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>40</v>
@@ -1912,22 +1912,22 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
         <v>1.65</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
         <v>9.4</v>
@@ -1957,13 +1957,13 @@
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -1987,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>5.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J12" t="n">
         <v>4.4</v>
@@ -2041,13 +2041,13 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" t="n">
         <v>1.55</v>
@@ -2056,13 +2056,13 @@
         <v>1.69</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>18.5</v>
@@ -2086,19 +2086,19 @@
         <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>2.72</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.56</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -715,10 +715,10 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -850,16 +850,16 @@
         <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
         <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G5" t="n">
         <v>8.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5.2</v>
@@ -1090,46 +1090,46 @@
         <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>8.800000000000001</v>
@@ -1138,52 +1138,52 @@
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
         <v>30</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>32</v>
       </c>
       <c r="AH5" t="n">
         <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
         <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO6" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.07</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12.5</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>770</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>440</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO9" t="n">
-        <v>5.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>12.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.74</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.9</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>9.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>770</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.98</v>
       </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2008,61 +2008,61 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,57 +2071,192 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF13" t="n">
         <v>46</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG13" t="n">
         <v>20</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI13" t="n">
         <v>25</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ13" t="n">
         <v>130</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK13" t="n">
         <v>55</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL13" t="n">
         <v>50</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM13" t="n">
         <v>65</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN13" t="n">
         <v>42</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO13" t="n">
         <v>6.8</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
         <v>2.96</v>
@@ -691,16 +691,16 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
@@ -709,28 +709,28 @@
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
         <v>14</v>
@@ -739,10 +739,10 @@
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
         <v>24</v>
@@ -754,7 +754,7 @@
         <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
@@ -772,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
@@ -820,7 +820,7 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -853,7 +853,7 @@
         <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -943,7 +943,7 @@
         <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I4" t="n">
         <v>3.45</v>
@@ -979,7 +979,7 @@
         <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1105,25 +1105,25 @@
         <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1132,7 +1132,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA5" t="n">
         <v>12.5</v>
@@ -1153,7 +1153,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
         <v>25</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1210,7 +1210,7 @@
         <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>1.76</v>
@@ -1219,7 +1219,7 @@
         <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1228,91 +1228,91 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.48</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.6</v>
       </c>
-      <c r="S6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="n">
         <v>65</v>
       </c>
-      <c r="AM6" t="n">
-        <v>90</v>
-      </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.89</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.91</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1360,7 +1360,7 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1375,79 +1375,79 @@
         <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
         <v>2.36</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
         <v>2.4</v>
@@ -1627,10 +1627,10 @@
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,16 +1642,16 @@
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
         <v>1.82</v>
@@ -1660,16 +1660,16 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -1678,16 +1678,16 @@
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
         <v>14.5</v>
@@ -1696,7 +1696,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1708,10 +1708,10 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.3</v>
@@ -1765,7 +1765,7 @@
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1786,7 +1786,7 @@
         <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
@@ -1795,16 +1795,16 @@
         <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
         <v>7.2</v>
@@ -1816,7 +1816,7 @@
         <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -1825,34 +1825,34 @@
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AH10" t="n">
         <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AL10" t="n">
         <v>210</v>
       </c>
       <c r="AM10" t="n">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.98</v>
@@ -1921,7 +1921,7 @@
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.75</v>
@@ -1930,22 +1930,22 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
         <v>11.5</v>
@@ -1954,40 +1954,40 @@
         <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
         <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2044,7 +2044,7 @@
         <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
         <v>2.32</v>
@@ -2053,73 +2053,73 @@
         <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
         <v>80</v>
       </c>
       <c r="AK12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL12" t="n">
         <v>46</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>10.5</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
@@ -2200,13 +2200,13 @@
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2215,49 +2215,49 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -673,7 +673,7 @@
         <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I2" t="n">
         <v>2.76</v>
@@ -685,7 +685,7 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -700,19 +700,19 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
         <v>1.58</v>
@@ -751,7 +751,7 @@
         <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>50</v>
@@ -766,7 +766,7 @@
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
         <v>36</v>
@@ -805,16 +805,16 @@
         <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -826,22 +826,22 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -853,7 +853,7 @@
         <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
         <v>20</v>
@@ -961,7 +961,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G5" t="n">
         <v>8.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1.43</v>
@@ -1096,10 +1096,10 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
         <v>2.32</v>
@@ -1111,7 +1111,7 @@
         <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
@@ -1123,13 +1123,13 @@
         <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>8.6</v>
@@ -1153,7 +1153,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
         <v>25</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1237,7 +1237,7 @@
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.58</v>
@@ -1246,7 +1246,7 @@
         <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.6</v>
@@ -1351,7 +1351,7 @@
         <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1360,34 +1360,34 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.36</v>
       </c>
       <c r="V7" t="n">
         <v>2.12</v>
@@ -1396,13 +1396,13 @@
         <v>1.28</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
@@ -1411,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>10</v>
@@ -1420,31 +1420,31 @@
         <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
         <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
@@ -1510,19 +1510,19 @@
         <v>1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R8" t="n">
         <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.38</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1636,19 +1636,19 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
         <v>3.75</v>
@@ -1663,13 +1663,13 @@
         <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -1786,7 +1786,7 @@
         <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
@@ -1801,7 +1801,7 @@
         <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>8.4</v>
@@ -1810,7 +1810,7 @@
         <v>7.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB10" t="n">
         <v>38</v>
@@ -1822,7 +1822,7 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
         <v>130</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
         <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
         <v>2.9</v>
@@ -1921,7 +1921,7 @@
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.75</v>
@@ -1936,7 +1936,7 @@
         <v>1.57</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2020,19 +2020,19 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2047,13 +2047,13 @@
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
         <v>2.78</v>
@@ -2065,10 +2065,10 @@
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
         <v>18.5</v>
@@ -2086,7 +2086,7 @@
         <v>18.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
@@ -2155,16 +2155,16 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
@@ -2176,10 +2176,10 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>2.6</v>
@@ -2188,10 +2188,10 @@
         <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
@@ -2200,13 +2200,13 @@
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
         <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2218,7 +2218,7 @@
         <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>9.800000000000001</v>
@@ -2236,19 +2236,19 @@
         <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
         <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>3.8</v>
@@ -694,37 +694,37 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -742,19 +742,19 @@
         <v>14.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
         <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
@@ -772,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -850,16 +850,16 @@
         <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="H4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,16 +967,16 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
         <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
@@ -985,10 +985,10 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -997,7 +997,7 @@
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1012,10 +1012,10 @@
         <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>8.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1.43</v>
@@ -1087,7 +1087,7 @@
         <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.34</v>
@@ -1102,19 +1102,19 @@
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I6" t="n">
         <v>1.78</v>
@@ -1231,40 +1231,40 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.58</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>14</v>
@@ -1276,25 +1276,25 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>110</v>
@@ -1312,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1363,7 +1363,7 @@
         <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>4.7</v>
@@ -1375,10 +1375,10 @@
         <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
         <v>2.94</v>
@@ -1408,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1423,13 +1423,13 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>95</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1507,7 +1507,7 @@
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q8" t="n">
         <v>1.27</v>
@@ -1624,19 +1624,19 @@
         <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1675,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
         <v>9.800000000000001</v>
@@ -1690,31 +1690,31 @@
         <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>40</v>
@@ -1765,7 +1765,7 @@
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,19 +1774,19 @@
         <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
         <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
@@ -1804,10 +1804,10 @@
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>9.199999999999999</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.72</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.74</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>2.9</v>
@@ -1900,22 +1900,22 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
@@ -1933,7 +1933,7 @@
         <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1969,7 +1969,7 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
@@ -2023,10 +2023,10 @@
         <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2035,13 +2035,13 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
@@ -2071,10 +2071,10 @@
         <v>1.31</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>13.5</v>
@@ -2107,7 +2107,7 @@
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
         <v>42</v>
@@ -2155,7 +2155,7 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.79</v>
@@ -2164,25 +2164,25 @@
         <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
         <v>1.59</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -670,10 +670,10 @@
         <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
         <v>2.7</v>
@@ -709,7 +709,7 @@
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -724,43 +724,43 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -769,10 +769,10 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
         <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.33</v>
@@ -826,16 +826,16 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -862,7 +862,7 @@
         <v>14.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -967,70 +967,70 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
         <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>8.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
         <v>1.43</v>
@@ -1102,7 +1102,7 @@
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1117,7 +1117,7 @@
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>3.25</v>
@@ -1174,7 +1174,7 @@
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
         <v>6.4</v>
@@ -1210,16 +1210,16 @@
         <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="I6" t="n">
         <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1231,22 +1231,22 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
         <v>1.58</v>
@@ -1258,7 +1258,7 @@
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>28</v>
@@ -1270,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1294,22 +1294,22 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1375,10 +1375,10 @@
         <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.94</v>
@@ -1528,7 +1528,7 @@
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1645,7 +1645,7 @@
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1693,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>17.5</v>
@@ -1774,10 +1774,10 @@
         <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
         <v>1.75</v>
@@ -1786,7 +1786,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T10" t="n">
         <v>2.3</v>
@@ -1936,7 +1936,7 @@
         <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2161,7 +2161,7 @@
         <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2194,7 +2194,7 @@
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>2.58</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -733,13 +733,13 @@
         <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
@@ -886,7 +886,7 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
         <v>2.7</v>
@@ -967,7 +967,7 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -976,13 +976,13 @@
         <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.48</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.34</v>
@@ -1096,40 +1096,40 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>8.6</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1177,7 +1177,7 @@
         <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1375,7 +1375,7 @@
         <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.5</v>
@@ -1435,7 +1435,7 @@
         <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G9" t="n">
         <v>2.38</v>
@@ -1885,7 +1885,7 @@
         <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
         <v>2.88</v>
@@ -1912,13 +1912,13 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.99</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
         <v>3.45</v>
@@ -1933,7 +1933,7 @@
         <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -2026,7 +2026,7 @@
         <v>1.96</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2053,7 +2053,7 @@
         <v>1.71</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
         <v>2.78</v>
@@ -2155,13 +2155,13 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
         <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2194,7 +2194,7 @@
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
         <v>2.58</v>
@@ -2258,6 +2258,141 @@
       </c>
       <c r="AO13" t="n">
         <v>7.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -676,7 +676,7 @@
         <v>2.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -808,7 +808,7 @@
         <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>2.84</v>
@@ -817,37 +817,37 @@
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.76</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.54</v>
@@ -859,10 +859,10 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>14.5</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H4" t="n">
         <v>2.74</v>
@@ -949,10 +949,10 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -970,16 +970,16 @@
         <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
         <v>2.28</v>
@@ -988,7 +988,7 @@
         <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
         <v>1.93</v>
@@ -1120,16 +1120,16 @@
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
         <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
         <v>8.6</v>
@@ -1138,16 +1138,16 @@
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
         <v>75</v>
@@ -1168,16 +1168,16 @@
         <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6">
@@ -1348,10 +1348,10 @@
         <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
@@ -1426,22 +1426,22 @@
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
         <v>95</v>
       </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>46</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
         <v>2.38</v>
@@ -1639,10 +1639,10 @@
         <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1774,7 +1774,7 @@
         <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
         <v>2.28</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1900,7 +1900,7 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
         <v>1.99</v>
@@ -1930,10 +1930,10 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -1984,7 +1984,7 @@
         <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2050,7 +2050,7 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.79</v>
@@ -2188,13 +2188,13 @@
         <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
         <v>2.58</v>
@@ -2293,7 +2293,7 @@
         <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
         <v>4.5</v>
@@ -2311,10 +2311,10 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
         <v>1.7</v>
@@ -2323,19 +2323,19 @@
         <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
         <v>1.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -685,7 +685,7 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -1075,16 +1075,16 @@
         <v>8.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>
@@ -1108,37 +1108,37 @@
         <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
         <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>12.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1210,7 +1210,7 @@
         <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
         <v>1.74</v>
@@ -1219,7 +1219,7 @@
         <v>1.78</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
@@ -1246,7 +1246,7 @@
         <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
         <v>1.58</v>
@@ -1258,7 +1258,7 @@
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>28</v>
@@ -1378,13 +1378,13 @@
         <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
         <v>2.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
         <v>2.3</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.36</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1654,16 +1654,16 @@
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1675,10 +1675,10 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1699,7 +1699,7 @@
         <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1933,7 +1933,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2023,10 +2023,10 @@
         <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I12" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2044,7 +2044,7 @@
         <v>5.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
         <v>2.36</v>
@@ -2065,7 +2065,7 @@
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>1.31</v>
@@ -2101,13 +2101,13 @@
         <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
         <v>42</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2158,16 +2158,16 @@
         <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2188,10 +2188,10 @@
         <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
         <v>1.61</v>
@@ -2200,7 +2200,7 @@
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>1.25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
@@ -766,7 +766,7 @@
         <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
         <v>980</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
         <v>3.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I5" t="n">
         <v>1.45</v>
@@ -1099,22 +1099,22 @@
         <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>2.04</v>
@@ -1132,7 +1132,7 @@
         <v>9.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>12.5</v>
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
         <v>5.2</v>
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1372,19 +1372,19 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
         <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>2.94</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
         <v>2.3</v>
@@ -1615,16 +1615,16 @@
         <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
         <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1639,7 +1639,7 @@
         <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.91</v>
@@ -1663,10 +1663,10 @@
         <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
@@ -1780,7 +1780,7 @@
         <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
@@ -1822,7 +1822,7 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
         <v>130</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
         <v>210</v>
@@ -1849,7 +1849,7 @@
         <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AO10" t="n">
         <v>5.2</v>
@@ -1888,10 +1888,10 @@
         <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1930,7 +1930,7 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
         <v>1.57</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="I12" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2050,40 +2050,40 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2092,37 +2092,37 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2161,13 +2161,13 @@
         <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
@@ -2200,10 +2200,10 @@
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -700,7 +700,7 @@
         <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
         <v>1.42</v>
@@ -808,7 +808,7 @@
         <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
         <v>2.84</v>
@@ -817,7 +817,7 @@
         <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.31</v>
@@ -844,7 +844,7 @@
         <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -943,37 +943,37 @@
         <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
         <v>3.3</v>
@@ -991,7 +991,7 @@
         <v>1.57</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>1.43</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J5" t="n">
         <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1105,13 +1105,13 @@
         <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
         <v>1.9</v>
@@ -1120,16 +1120,16 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
@@ -1156,10 +1156,10 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ5" t="n">
         <v>280</v>
@@ -1168,16 +1168,16 @@
         <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
         <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
         <v>5.2</v>
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
@@ -1285,7 +1285,7 @@
         <v>19.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
@@ -1378,10 +1378,10 @@
         <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
         <v>1.73</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
         <v>1.27</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
         <v>2.38</v>
@@ -1660,7 +1660,7 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.72</v>
@@ -1678,7 +1678,7 @@
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1780,7 +1780,7 @@
         <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
@@ -1852,7 +1852,7 @@
         <v>330</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1912,10 +1912,10 @@
         <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>1.4</v>
@@ -1930,19 +1930,19 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
@@ -1951,13 +1951,13 @@
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
         <v>17.5</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G12" t="n">
         <v>4.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2035,7 +2035,7 @@
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2050,7 +2050,7 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
@@ -2065,13 +2065,13 @@
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -2101,19 +2101,19 @@
         <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="n">
         <v>46</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>70</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G13" t="n">
         <v>4.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
         <v>1.66</v>
@@ -2200,13 +2200,13 @@
         <v>2.58</v>
       </c>
       <c r="V13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>1.26</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2224,7 +2224,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
@@ -2242,13 +2242,13 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
         <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
         <v>4.5</v>
@@ -2305,10 +2305,10 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
         <v>3.05</v>
@@ -2317,25 +2317,25 @@
         <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
         <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
         <v>1.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="O2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.37</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -730,19 +730,19 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
@@ -763,10 +763,10 @@
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>980</v>
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.58</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.7</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>1.27</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
         <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,16 +1003,16 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.43</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.5</v>
@@ -1096,31 +1096,31 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W5" t="n">
         <v>1.12</v>
@@ -1129,31 +1129,31 @@
         <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1168,7 +1168,7 @@
         <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
@@ -1177,7 +1177,7 @@
         <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>5.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I6" t="n">
         <v>1.78</v>
@@ -1225,94 +1225,94 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
         <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
         <v>4.5</v>
@@ -1375,13 +1375,13 @@
         <v>2.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
         <v>1.49</v>
       </c>
       <c r="S7" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T7" t="n">
         <v>1.73</v>
@@ -1402,13 +1402,13 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1447,7 +1447,7 @@
         <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1498,25 +1498,25 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1525,10 +1525,10 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>3.55</v>
@@ -1627,46 +1627,46 @@
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
         <v>1.72</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
@@ -1678,7 +1678,7 @@
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1687,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
         <v>14</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1708,16 +1708,16 @@
         <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>1.3</v>
@@ -1780,7 +1780,7 @@
         <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
@@ -1792,13 +1792,13 @@
         <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>4.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1813,16 +1813,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
         <v>130</v>
@@ -1846,7 +1846,7 @@
         <v>210</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
         <v>330</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1930,10 +1930,10 @@
         <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
         <v>13.5</v>
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
         <v>44</v>
@@ -1951,13 +1951,13 @@
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>17.5</v>
@@ -1975,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
         <v>40</v>
@@ -2020,13 +2020,13 @@
         <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
         <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2050,31 +2050,31 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="U12" t="n">
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W12" t="n">
         <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -2083,7 +2083,7 @@
         <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2107,7 +2107,7 @@
         <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
         <v>44</v>
@@ -2122,7 +2122,7 @@
         <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.81</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2185,7 +2185,7 @@
         <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
         <v>1.66</v>
@@ -2194,16 +2194,16 @@
         <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
@@ -2224,7 +2224,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15.5</v>
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
         <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.29</v>
@@ -2344,31 +2344,31 @@
         <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2386,10 +2386,10 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Kahramanmaras Istiklal Spor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>1461 Trabzon</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>9.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>4.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -745,34 +745,34 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Van Buyuksehir Belediye</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bodrum Belediyesi Bodru</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>1.27</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -923,60 +923,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -985,10 +985,10 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>3.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -997,16 +997,16 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>990</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>2.58</v>
       </c>
       <c r="W5" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Van Buyuksehir Belediye</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Bodrum Belediyesi Bodru</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="I6" t="n">
-        <v>1.78</v>
+        <v>2.84</v>
       </c>
       <c r="J6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>3.35</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.04</v>
       </c>
-      <c r="I8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="W8" t="n">
-        <v>4.1</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
@@ -1771,94 +1771,94 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.3</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.74</v>
-      </c>
       <c r="V10" t="n">
-        <v>4.2</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO10" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>330</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.74</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>2.76</v>
+        <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>19.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>2.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>4.1</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>1.93</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>2.04</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
       <c r="AI12" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,255 +2143,660 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.9</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V13" t="n">
         <v>4.2</v>
       </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.24</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2026-02-18</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I14" t="n">
-        <v>980</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>980</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="H17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.01</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.29</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W17" t="n">
         <v>1.9</v>
       </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="X17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -673,25 +673,25 @@
         <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
         <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -700,19 +700,19 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,10 +736,10 @@
         <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
         <v>75</v>
@@ -808,7 +808,7 @@
         <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I3" t="n">
         <v>2.74</v>
@@ -817,7 +817,7 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.45</v>
@@ -832,7 +832,7 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
         <v>2.08</v>
@@ -844,7 +844,7 @@
         <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="I4" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,46 +961,46 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1009,10 +1009,10 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
         <v>990</v>
       </c>
       <c r="H5" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.54</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.37</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="T5" t="n">
         <v>1.05</v>
@@ -1120,7 +1120,7 @@
         <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1210,7 +1210,7 @@
         <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.58</v>
@@ -1222,7 +1222,7 @@
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1240,7 +1240,7 @@
         <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1258,7 +1258,7 @@
         <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1351,13 +1351,13 @@
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1384,19 +1384,19 @@
         <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
         <v>38</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I8" t="n">
         <v>1.43</v>
       </c>
       <c r="J8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1507,22 +1507,22 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" t="n">
         <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>3.3</v>
@@ -1531,7 +1531,7 @@
         <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB8" t="n">
         <v>32</v>
@@ -1549,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>13.5</v>
@@ -1573,13 +1573,13 @@
         <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
         <v>5.4</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
         <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
         <v>1.78</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1753,7 +1753,7 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I10" t="n">
         <v>1.89</v>
@@ -1765,7 +1765,7 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,7 +1774,7 @@
         <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
         <v>2.24</v>
@@ -1807,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>21</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
         <v>2.38</v>
@@ -2026,7 +2026,7 @@
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2173,7 +2173,7 @@
         <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>4.9</v>
@@ -2191,7 +2191,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
         <v>2.3</v>
@@ -2206,7 +2206,7 @@
         <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>8.199999999999999</v>
@@ -2227,7 +2227,7 @@
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>130</v>
@@ -2236,7 +2236,7 @@
         <v>46</v>
       </c>
       <c r="AH13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
         <v>42</v>
@@ -2338,7 +2338,7 @@
         <v>1.53</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2431,7 +2431,7 @@
         <v>1.93</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2455,7 +2455,7 @@
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
         <v>1.54</v>
@@ -2470,7 +2470,7 @@
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W15" t="n">
         <v>1.3</v>
@@ -2563,10 +2563,10 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2587,7 +2587,7 @@
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" t="n">
         <v>1.58</v>
@@ -2602,16 +2602,16 @@
         <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2620,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
         <v>24</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
         <v>2.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -670,22 +670,22 @@
         <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
         <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -694,28 +694,28 @@
         <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
         <v>4.2</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
         <v>19.5</v>
@@ -748,16 +748,16 @@
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
         <v>19.5</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
@@ -880,13 +880,13 @@
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>980</v>
@@ -898,16 +898,16 @@
         <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,52 +937,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
         <v>4.3</v>
@@ -991,40 +991,40 @@
         <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
         <v>16</v>
       </c>
-      <c r="AE4" t="n">
-        <v>22</v>
-      </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5">
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>990</v>
       </c>
       <c r="H5" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1210,10 +1210,10 @@
         <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
         <v>2.84</v>
@@ -1222,7 +1222,7 @@
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1240,13 +1240,13 @@
         <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1264,31 +1264,31 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,13 +1345,13 @@
         <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1360,7 +1360,7 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1387,10 +1387,10 @@
         <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
@@ -1399,40 +1399,40 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
         <v>8.800000000000001</v>
@@ -1495,7 +1495,7 @@
         <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,10 +1507,10 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>1.6</v>
@@ -1522,10 +1522,10 @@
         <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W8" t="n">
         <v>1.12</v>
@@ -1564,22 +1564,22 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>280</v>
       </c>
       <c r="AK8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
         <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="n">
         <v>5.4</v>
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I9" t="n">
         <v>1.78</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.16</v>
@@ -1645,16 +1645,16 @@
         <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U9" t="n">
         <v>2.56</v>
@@ -1666,10 +1666,10 @@
         <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
         <v>14</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1687,7 +1687,7 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF9" t="n">
         <v>980</v>
@@ -1705,7 +1705,7 @@
         <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
         <v>1.89</v>
@@ -1765,34 +1765,34 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
         <v>2.12</v>
@@ -1804,7 +1804,7 @@
         <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>12</v>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
@@ -1837,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="n">
         <v>50</v>
@@ -1849,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
         <v>10.5</v>
@@ -1888,13 +1888,13 @@
         <v>1.32</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>6.4</v>
@@ -1909,13 +1909,13 @@
         <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
@@ -1924,22 +1924,22 @@
         <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
         <v>4.1</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="n">
         <v>26</v>
       </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>21</v>
-      </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
         <v>13.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14</v>
       </c>
       <c r="H13" t="n">
         <v>1.3</v>
@@ -2170,7 +2170,7 @@
         <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2188,46 +2188,46 @@
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
         <v>2.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
         <v>4.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AB13" t="n">
         <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
         <v>130</v>
@@ -2245,10 +2245,10 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AL13" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AM13" t="n">
         <v>220</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.74</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.76</v>
-      </c>
       <c r="H14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2314,22 +2314,22 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
         <v>3.45</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.26</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.3</v>
-      </c>
       <c r="H15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2452,10 +2452,10 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.54</v>
@@ -2470,19 +2470,19 @@
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
         <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA15" t="n">
         <v>22</v>
@@ -2527,7 +2527,7 @@
         <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2563,10 +2563,10 @@
         <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2596,22 +2596,22 @@
         <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -2620,16 +2620,16 @@
         <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>15.5</v>
@@ -2638,16 +2638,16 @@
         <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ16" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
         <v>48</v>
@@ -2656,10 +2656,10 @@
         <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
         <v>7.4</v>
@@ -2692,43 +2692,43 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="O17" t="n">
         <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
         <v>4.3</v>
@@ -2737,19 +2737,19 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,34 +2758,34 @@
         <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
         <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
         <v>1.59</v>
@@ -718,7 +718,7 @@
         <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>95</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>65</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AK2" t="n">
         <v>19.5</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
         <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
         <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -877,28 +877,28 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -949,13 +949,13 @@
         <v>1.3</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,7 +967,7 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
         <v>1.68</v>
@@ -982,10 +982,10 @@
         <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.05</v>
@@ -1003,10 +1003,10 @@
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1018,13 +1018,13 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1075,16 +1075,16 @@
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="H5" t="n">
         <v>1.21</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
         <v>19</v>
@@ -1099,7 +1099,7 @@
         <v>2.66</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
         <v>2.32</v>
@@ -1108,23 +1108,23 @@
         <v>1.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.05</v>
       </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.82</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.6</v>
-      </c>
       <c r="I6" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
@@ -1225,43 +1225,43 @@
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>14.5</v>
@@ -1273,13 +1273,13 @@
         <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
         <v>36</v>
@@ -1288,16 +1288,16 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>28</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G7" t="n">
         <v>2.72</v>
@@ -1351,7 +1351,7 @@
         <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1372,7 +1372,7 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q7" t="n">
         <v>1.91</v>
@@ -1390,7 +1390,7 @@
         <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
@@ -1399,49 +1399,49 @@
         <v>17.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G8" t="n">
         <v>8.6</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1501,49 +1501,49 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.56</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.62</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1555,10 +1555,10 @@
         <v>13.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1567,13 +1567,13 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AK8" t="n">
         <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
         <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
@@ -1636,28 +1636,28 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
         <v>2.28</v>
@@ -1669,13 +1669,13 @@
         <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
@@ -1687,7 +1687,7 @@
         <v>10.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
         <v>980</v>
@@ -1699,25 +1699,25 @@
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
         <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AL9" t="n">
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1747,40 +1747,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>1.46</v>
@@ -1789,19 +1789,19 @@
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
         <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1819,10 +1819,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
@@ -1840,7 +1840,7 @@
         <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1849,10 +1849,10 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.49</v>
@@ -2041,55 +2041,55 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>42</v>
@@ -2098,25 +2098,25 @@
         <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
         <v>1.3</v>
@@ -2170,7 +2170,7 @@
         <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2182,7 +2182,7 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
         <v>1.74</v>
@@ -2191,22 +2191,22 @@
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
         <v>2.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
         <v>4.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
         <v>8.4</v>
@@ -2215,16 +2215,16 @@
         <v>7.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB13" t="n">
         <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>14.5</v>
@@ -2233,19 +2233,19 @@
         <v>130</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AL13" t="n">
         <v>200</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
         <v>2.74</v>
       </c>
       <c r="H14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.86</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.5</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2323,16 +2323,16 @@
         <v>1.99</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
         <v>1.53</v>
@@ -2341,7 +2341,7 @@
         <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
@@ -2350,10 +2350,10 @@
         <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>7.6</v>
@@ -2365,7 +2365,7 @@
         <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2374,16 +2374,16 @@
         <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
         <v>40</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
         <v>85</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.1</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="I15" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2446,37 +2446,37 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
         <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
@@ -2485,49 +2485,49 @@
         <v>13.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
         <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2581,46 +2581,46 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S16" t="n">
         <v>2.44</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
         <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
         <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>25</v>
@@ -2635,7 +2635,7 @@
         <v>15.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="n">
         <v>19.5</v>
@@ -2653,10 +2653,10 @@
         <v>48</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="n">
         <v>36</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>4.6</v>
@@ -2710,34 +2710,34 @@
         <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
         <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
         <v>1.27</v>
@@ -2749,7 +2749,7 @@
         <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
         <v>1000</v>
@@ -2791,10 +2791,10 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-18.xlsx
@@ -667,55 +667,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
         <v>1.59</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
         <v>4.6</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
         <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
@@ -868,28 +868,28 @@
         <v>120</v>
       </c>
       <c r="AB3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>12</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>150</v>
@@ -898,13 +898,13 @@
         <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="n">
         <v>46</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
         <v>5.9</v>
@@ -961,70 +961,70 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>120</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>17.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1255,40 +1255,40 @@
         <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
         <v>30</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>25</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1306,10 +1306,10 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1372,10 +1372,10 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1393,10 +1393,10 @@
         <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1414,7 +1414,7 @@
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1438,7 +1438,7 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1492,7 +1492,7 @@
         <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1504,7 +1504,7 @@
         <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.56</v>
@@ -1513,7 +1513,7 @@
         <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S8" t="n">
         <v>2.58</v>
@@ -1543,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1558,10 +1558,10 @@
         <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>29</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
         <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1645,40 +1645,40 @@
         <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
         <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1696,19 +1696,19 @@
         <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AK9" t="n">
         <v>320</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1750,7 +1750,7 @@
         <v>4.3</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>1.91</v>
@@ -1801,7 +1801,7 @@
         <v>1.29</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1810,10 +1810,10 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>8.800000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17.5</v>
@@ -1846,7 +1846,7 @@
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
         <v>46</v>
@@ -1885,7 +1885,7 @@
         <v>1.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H11" t="n">
         <v>11.5</v>
@@ -1900,7 +1900,7 @@
         <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,10 +1912,10 @@
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
         <v>1.33</v>
@@ -1933,10 +1933,10 @@
         <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
         <v>100</v>
@@ -1951,22 +1951,22 @@
         <v>6.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
         <v>55</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.48</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
@@ -2059,28 +2059,28 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>9.4</v>
@@ -2092,10 +2092,10 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2107,10 +2107,10 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>44</v>
@@ -2119,10 +2119,10 @@
         <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2182,16 +2182,16 @@
         <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
         <v>2.3</v>
@@ -2206,10 +2206,10 @@
         <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
         <v>7.2</v>
@@ -2239,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="AO13" t="n">
         <v>5.1</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
         <v>2.84</v>
@@ -2311,28 +2311,28 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T14" t="n">
         <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>1.53</v>
@@ -2350,7 +2350,7 @@
         <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
@@ -2359,13 +2359,13 @@
         <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2428,10 +2428,10 @@
         <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -2449,19 +2449,19 @@
         <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.67</v>
@@ -2470,16 +2470,16 @@
         <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
         <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
         <v>13.5</v>
@@ -2488,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
@@ -2500,13 +2500,13 @@
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
         <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
         <v>27</v>
@@ -2518,7 +2518,7 @@
         <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G16" t="n">
         <v>4.9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>1.77</v>
@@ -2584,25 +2584,25 @@
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
         <v>1.68</v>
       </c>
       <c r="S16" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V16" t="n">
         <v>2.28</v>
@@ -2614,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>13</v>
@@ -2626,7 +2626,7 @@
         <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>10</v>
@@ -2641,7 +2641,7 @@
         <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -2662,7 +2662,7 @@
         <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G17" t="n">
         <v>2.1</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2710,49 +2710,49 @@
         <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.43</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
         <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
         <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
         <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
         <v>1.91</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
         <v>120</v>
@@ -2794,7 +2794,7 @@
         <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
